--- a/results/R_gene_lists/d14_LEC_subtype_ova_markers.xlsx
+++ b/results/R_gene_lists/d14_LEC_subtype_ova_markers.xlsx
@@ -6,20 +6,19 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="neg-cLEC" r:id="rId3" sheetId="1"/>
-    <sheet name="pos-cLEC" r:id="rId4" sheetId="2"/>
-    <sheet name="pos-BEC" r:id="rId5" sheetId="3"/>
-    <sheet name="neg-mLEC" r:id="rId6" sheetId="4"/>
-    <sheet name="pos-mLEC" r:id="rId7" sheetId="5"/>
-    <sheet name="neg-fLEC" r:id="rId8" sheetId="6"/>
-    <sheet name="pos-fLEC" r:id="rId9" sheetId="7"/>
-    <sheet name="neg-iLEC" r:id="rId10" sheetId="8"/>
+    <sheet name="low-cLEC" r:id="rId3" sheetId="1"/>
+    <sheet name="high-cLEC" r:id="rId4" sheetId="2"/>
+    <sheet name="high-BEC" r:id="rId5" sheetId="3"/>
+    <sheet name="low-mLEC" r:id="rId6" sheetId="4"/>
+    <sheet name="high-mLEC" r:id="rId7" sheetId="5"/>
+    <sheet name="low-fLEC" r:id="rId8" sheetId="6"/>
+    <sheet name="high-fLEC" r:id="rId9" sheetId="7"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="235">
   <si>
     <t>p_val</t>
   </si>
@@ -78,7 +77,7 @@
     <t>11</t>
   </si>
   <si>
-    <t>neg-cLEC</t>
+    <t>low-cLEC</t>
   </si>
   <si>
     <t>Malat1</t>
@@ -117,7 +116,7 @@
     <t>cLEC</t>
   </si>
   <si>
-    <t>pos-cLEC</t>
+    <t>high-cLEC</t>
   </si>
   <si>
     <t>Gdf10</t>
@@ -243,7 +242,7 @@
     <t>42</t>
   </si>
   <si>
-    <t>pos-BEC</t>
+    <t>high-BEC</t>
   </si>
   <si>
     <t>Fgl2</t>
@@ -357,7 +356,7 @@
     <t>BEC</t>
   </si>
   <si>
-    <t>neg-mLEC</t>
+    <t>low-mLEC</t>
   </si>
   <si>
     <t>Hpgd</t>
@@ -426,7 +425,7 @@
     <t>43</t>
   </si>
   <si>
-    <t>pos-mLEC</t>
+    <t>high-mLEC</t>
   </si>
   <si>
     <t>Efnb2</t>
@@ -531,7 +530,7 @@
     <t>Ly6e</t>
   </si>
   <si>
-    <t>neg-fLEC</t>
+    <t>low-fLEC</t>
   </si>
   <si>
     <t>Igfbp7</t>
@@ -609,7 +608,7 @@
     <t>fLEC</t>
   </si>
   <si>
-    <t>pos-fLEC</t>
+    <t>high-fLEC</t>
   </si>
   <si>
     <t>Clu</t>
@@ -724,12 +723,6 @@
   </si>
   <si>
     <t>C1ql3</t>
-  </si>
-  <si>
-    <t>neg-iLEC</t>
-  </si>
-  <si>
-    <t>iLEC</t>
   </si>
 </sst>
 </file>
@@ -6908,73 +6901,4 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1"/>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1.049319222180134E-6</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1.3567714038343357</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.022</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.03281850799290587</v>
-      </c>
-      <c r="G2" t="s">
-        <v>235</v>
-      </c>
-      <c r="H2" t="s">
-        <v>113</v>
-      </c>
-      <c r="I2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
 </file>